--- a/Assessment_Statics.xlsx
+++ b/Assessment_Statics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aasth\Desktop\DA_Statistics\Statistic_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9131169-003F-4A5F-80B4-DFF6C3FC63CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B59114-5E9D-4960-9695-82B91AE8B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{718D3237-3CFC-4E12-9C3C-86BAF53C58AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{718D3237-3CFC-4E12-9C3C-86BAF53C58AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Que1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Mean</t>
   </si>
@@ -306,15 +306,33 @@
   <si>
     <t>Critical value(0.0000011256) &lt; static Value(23.70037948), alternate Hypothesis accepted.</t>
   </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +349,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,14 +432,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,6 +457,2717 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Girls</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Vs Boys</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Girls</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que1'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Variance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Standard Error</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sample Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que1'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1250-422C-A7A4-C2B17C99978B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Que1'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que1'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Variance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Standard Error</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sample Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que1'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1250-422C-A7A4-C2B17C99978B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Que1'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que1'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Variance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Standard Error</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sample Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que1'!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1250-422C-A7A4-C2B17C99978B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="586364176"/>
+        <c:axId val="586360816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="586364176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1"/>
+                  <a:t>Descriptive Statitstics</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1" baseline="0"/>
+                  <a:t>  </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44041383931380934"/>
+              <c:y val="0.86921312486369007"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586360816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586360816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1"/>
+                  <a:t>Values </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586364176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42419288562131424"/>
+          <c:y val="0.935484711975473"/>
+          <c:w val="0.30631561679790026"/>
+          <c:h val="5.583958165687742E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Comparison of Smokers vs. Non-Smokers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Smokers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que2'!$K$7:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que2'!$L$7:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0710678118654755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E958-4449-8298-8824C0E7599D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que2'!$K$7:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que2'!$M$7:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E958-4449-8298-8824C0E7599D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Non-Smokers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Que2'!$K$7:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Median</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Que2'!$N$7:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.06096654409899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E958-4449-8298-8824C0E7599D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="586368976"/>
+        <c:axId val="586361296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="586368976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586361296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586361296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586368976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FAD00A-BF4F-269A-8CEF-4455125E9EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F83C0C-D779-F68D-658B-C471533AF890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B65E45-35F7-417B-824B-91469FAE2319}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,14 +3478,17 @@
     <col min="1" max="1" width="66.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -756,8 +3499,16 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -771,7 +3522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,23 +3535,87 @@
       <c r="E5" s="2">
         <v>120</v>
       </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -809,95 +3624,69 @@
         <v>0.99749686716300023</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>(C4-C5)/B13</f>
         <v>7.0175658996391963</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.05</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>1.96</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DD424D-5EB4-4FD7-902A-38BE53DFD603}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,14 +3695,18 @@
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -929,8 +3722,16 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -947,7 +3748,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -960,8 +3761,20 @@
       <c r="E7" s="2">
         <v>990</v>
       </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>225</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>495</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -974,8 +3787,48 @@
       <c r="E8" s="2">
         <v>1590</v>
       </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>225</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>495</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>205.06096654409899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>220</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -991,8 +3844,20 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11">
+        <v>640</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +3872,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +3887,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +3904,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +3919,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +3933,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1082,7 +3947,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1095,8 +3960,12 @@
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1109,7 +3978,7 @@
         <v>-41.875</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +3991,7 @@
         <v>41.875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +4018,7 @@
         <v>6.4497126436781613</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +4031,7 @@
         <v>2.931687565308255</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +4053,7 @@
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <f>_xlfn.CHISQ.TEST(C12:D13,C18:D19)</f>
         <v>1.1256033979815032E-6</v>
       </c>
@@ -1199,5 +4068,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>